--- a/projects/problems_templates/pi/Esame.xlsx
+++ b/projects/problems_templates/pi/Esame.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30888" windowHeight="13800" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30888" windowHeight="13800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Weak Scaling Pi" sheetId="3" r:id="rId1"/>
     <sheet name="Weak Scaling Tempi" sheetId="1" r:id="rId2"/>
-    <sheet name="Strong Scaling Tempi" sheetId="2" r:id="rId3"/>
+    <sheet name="Strong Scaling Pi" sheetId="4" r:id="rId3"/>
+    <sheet name="Strong Scaling Tempi" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="3">
   <si>
     <t>Tapezoid</t>
   </si>
@@ -467,7 +468,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -773,7 +773,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1929,6 +1928,1012 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Strong Scaling Pi'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tapezoid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.9557589626239528E-2"/>
+                  <c:y val="-0.12042612320518759"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-B2E9-4C61-93F1-42755905C3DE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.0022883295194509E-2"/>
+                  <c:y val="-0.13740929442643202"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-B2E9-4C61-93F1-42755905C3DE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.860411899313501E-3"/>
+                  <c:y val="-0.13586536976995525"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-B2E9-4C61-93F1-42755905C3DE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.5347063310450035E-4"/>
+                  <c:y val="-0.14667284236529257"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-B2E9-4C61-93F1-42755905C3DE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.7673531655225716E-3"/>
+                  <c:y val="-0.15593639030415316"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-B2E9-4C61-93F1-42755905C3DE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.7208237986270021E-3"/>
+                  <c:y val="-0.15439246564767639"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-B2E9-4C61-93F1-42755905C3DE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.5347063310464021E-4"/>
+                  <c:y val="-0.15130461633472286"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-B2E9-4C61-93F1-42755905C3DE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.9069412662090009E-2"/>
+                  <c:y val="-0.15284854099119966"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-B2E9-4C61-93F1-42755905C3DE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Strong Scaling Pi'!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000000000000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.1415926531376801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1415926531189902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1415926531187002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1415926531131699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1415926592653101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1415926531062199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1415926531138401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1415926531126401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B2E9-4C61-93F1-42755905C3DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Strong Scaling Pi'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>'Strong Scaling Pi'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000000000000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.14159265358979</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.14159265358979</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.14159265358979</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.14159265358979</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.14159265358979</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.14159265358979</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.14159265358979</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.14159265358979</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B2E9-4C61-93F1-42755905C3DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Strong Scaling Pi'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Montecarlo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.9160945842868053E-2"/>
+                  <c:y val="0.12968967114404817"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-B2E9-4C61-93F1-42755905C3DE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.5812356979405063E-2"/>
+                  <c:y val="6.9476609541454321E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-B2E9-4C61-93F1-42755905C3DE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.2440884820747519E-2"/>
+                  <c:y val="0.10035510267098965"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-B2E9-4C61-93F1-42755905C3DE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.8649885583524028E-2"/>
+                  <c:y val="8.0284082136791723E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-B2E9-4C61-93F1-42755905C3DE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.0045766590389088E-2"/>
+                  <c:y val="8.9547630075652307E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-B2E9-4C61-93F1-42755905C3DE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.8115942028985647E-2"/>
+                  <c:y val="0.15902423961710668"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-B2E9-4C61-93F1-42755905C3DE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.860411899313501E-3"/>
+                  <c:y val="0.11733827389223395"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-B2E9-4C61-93F1-42755905C3DE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.4302059496567507E-2"/>
+                  <c:y val="9.4179404045082654E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-B2E9-4C61-93F1-42755905C3DE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Strong Scaling Pi'!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000000000000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.14157377702257</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1415377888556302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1415438778426199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1415537442739798</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1415096070345099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1415474150057601</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.14153133851547</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1415462732042898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B2E9-4C61-93F1-42755905C3DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="614229104"/>
+        <c:axId val="614227856"/>
+        <c:axId val="359191040"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="614229104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="614227856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="614227856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00000000000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="614229104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="359191040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="614227856"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -1973,7 +2978,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2075,9 +3079,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-8C4B-4813-BE6D-7FF2B8B9AC8F}"/>
                 </c:ext>
@@ -2098,9 +3100,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-8C4B-4813-BE6D-7FF2B8B9AC8F}"/>
                 </c:ext>
@@ -2121,9 +3121,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000F-8C4B-4813-BE6D-7FF2B8B9AC8F}"/>
                 </c:ext>
@@ -2144,9 +3142,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000E-8C4B-4813-BE6D-7FF2B8B9AC8F}"/>
                 </c:ext>
@@ -2167,9 +3163,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000D-8C4B-4813-BE6D-7FF2B8B9AC8F}"/>
                 </c:ext>
@@ -2190,9 +3184,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-8C4B-4813-BE6D-7FF2B8B9AC8F}"/>
                 </c:ext>
@@ -2213,9 +3205,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-8C4B-4813-BE6D-7FF2B8B9AC8F}"/>
                 </c:ext>
@@ -2259,7 +3249,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2360,9 +3349,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-8C4B-4813-BE6D-7FF2B8B9AC8F}"/>
                 </c:ext>
@@ -2383,9 +3370,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-8C4B-4813-BE6D-7FF2B8B9AC8F}"/>
                 </c:ext>
@@ -2406,9 +3391,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-8C4B-4813-BE6D-7FF2B8B9AC8F}"/>
                 </c:ext>
@@ -2429,9 +3412,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-8C4B-4813-BE6D-7FF2B8B9AC8F}"/>
                 </c:ext>
@@ -2452,9 +3433,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-8C4B-4813-BE6D-7FF2B8B9AC8F}"/>
                 </c:ext>
@@ -2475,9 +3454,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-8C4B-4813-BE6D-7FF2B8B9AC8F}"/>
                 </c:ext>
@@ -2498,9 +3475,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-8C4B-4813-BE6D-7FF2B8B9AC8F}"/>
                 </c:ext>
@@ -2544,7 +3519,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2731,7 +3705,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2918,6 +3891,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="307">
   <cs:axisTitle>
@@ -3951,6 +4964,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="307">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4537,6 +6066,41 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4837,7 +6401,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AG24" sqref="AG24"/>
+      <selection activeCell="C1" sqref="C1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4954,7 +6518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AF32" sqref="AF32"/>
     </sheetView>
   </sheetViews>
@@ -5128,6 +6692,125 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF42" sqref="AF42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>3.1415926531376801</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3.14159265358979</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3.14157377702257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>3.1415926531189902</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3.14159265358979</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3.1415377888556302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3.1415926531187002</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3.14159265358979</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3.1415438778426199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>3.1415926531131699</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3.14159265358979</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3.1415537442739798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>3.1415926592653101</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3.14159265358979</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3.1415096070345099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>3.1415926531062199</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3.14159265358979</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3.1415474150057601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>3.1415926531138401</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3.14159265358979</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3.14153133851547</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>3.1415926531126401</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3.14159265358979</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3.1415462732042898</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
